--- a/TestResults/GeoTypeGraphQL.xlsx
+++ b/TestResults/GeoTypeGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -128,13 +128,104 @@
   <si>
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
   </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify the geopoliticalTypeNm record with parameter geopoliticalTypeNm with  geopoliticalTypeId, geopoliticalTypeName  attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"query":"
+	{
+		  geopoliticalTypes (geopoliticalTypeName : \"GeoTest\") 
+		{
+			    geopoliticalTypeId    
+		}
+	}"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_GeopoliticalType_ID: 5906024221803810540
+DB_GeopoliticalType_ID: 5906024221803810540
+</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify no results fetched when passing the invalid geopoliticalTypeName  parameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:38:34.837Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'geopoliticalTypeId1' in type 'GeoPoliticalType' is undefined @ 'geopoliticalTypes/geopoliticalTypeId1'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple(2 attributes) invalid attribute names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"timestamp":"2020-02-04T13:38:36.165Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'geopoliticalTypeId1' in type 'GeoPoliticalType' is undefined @ 'geopoliticalTypes/geopoliticalTypeId1'",
+				"path":null
+			},
+			{
+				"timestamp":"2020-02-04T13:38:36.165Z
+				[
+					GMT
+				]",
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'geopoliticalTypeName2' in type 'GeoPoliticalType' is undefined @ 'geopoliticalTypes/geopoliticalTypeName2'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="79">
+  <fonts count="123">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -532,6 +623,226 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -600,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -834,6 +1145,138 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1148,6 +1591,150 @@
       </c>
       <c r="L8"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>26</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>15</v>
+      </c>
+      <c r="L11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="112">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s" s="113">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s" s="114">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="115">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s" s="116">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="117">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="118">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s" s="119">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s" s="120">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="121">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s" s="122">
+        <v>15</v>
+      </c>
+      <c r="L12"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
